--- a/RequestCMR/config/MassUpdateTemplateAutoAT.xlsx
+++ b/RequestCMR/config/MassUpdateTemplateAutoAT.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Mail to" r:id="rId6" sheetId="4"/>
     <sheet name="Bill To" r:id="rId7" sheetId="5"/>
     <sheet name="Ship To" r:id="rId8" sheetId="6"/>
-    <sheet name="EPL" r:id="rId9" sheetId="7"/>
+    <sheet name="Install At" r:id="rId9" sheetId="7"/>
     <sheet name="Control" r:id="rId3" sheetId="1" state="hidden"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="454">
   <si>
     <t>CMR. No</t>
   </si>
@@ -1163,40 +1163,97 @@
     <t>ISU Code</t>
   </si>
   <si>
+    <t>ISU Code Values</t>
+  </si>
+  <si>
+    <t>21 | 21-Unassigned</t>
+  </si>
+  <si>
+    <t>32 | 32-OBSOLETE</t>
+  </si>
+  <si>
+    <t>34 | 34-Enterprise</t>
+  </si>
+  <si>
+    <t>60 | 60-Valid Unassigned Account</t>
+  </si>
+  <si>
+    <t>1R | 1R-Retail</t>
+  </si>
+  <si>
+    <t>27 | 27-Cross Industry (A/C)</t>
+  </si>
+  <si>
+    <t>31 | 31-Insurance</t>
+  </si>
+  <si>
+    <t>3T | 3T-Telecommunications</t>
+  </si>
+  <si>
+    <t>40 | 40-Education</t>
+  </si>
+  <si>
+    <t>4A | 4A-Automotive</t>
+  </si>
+  <si>
+    <t>4D | 4D-Industrial Products</t>
+  </si>
+  <si>
+    <t>4F | 4F-Finance Markets</t>
+  </si>
+  <si>
+    <t>5B | 5B-Computer Services</t>
+  </si>
+  <si>
+    <t>5E | 5E-Electronics</t>
+  </si>
+  <si>
+    <t>8B | 8B-BP Act.end User Unkn</t>
+  </si>
+  <si>
+    <t>8C | 8C-Life Sciences</t>
+  </si>
+  <si>
+    <t>04 | 04-Banking</t>
+  </si>
+  <si>
+    <t>05 | 05-Media &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>11 | 11-Healthcare</t>
+  </si>
+  <si>
+    <t>12 | 12-Energy &amp; Utilities</t>
+  </si>
+  <si>
+    <t>14 | 14-Aerospace &amp; Defense</t>
+  </si>
+  <si>
+    <t>15 | 15-Chemical &amp; Petroleum</t>
+  </si>
+  <si>
+    <t>18 | 18-Consumer Products</t>
+  </si>
+  <si>
+    <t>19 | 19-Travel Transportation</t>
+  </si>
+  <si>
+    <t>28 | 28-Government</t>
+  </si>
+  <si>
+    <t>5K | 5K-Comp Int Sys Design</t>
+  </si>
+  <si>
     <t>Client Tier</t>
   </si>
   <si>
-    <t>Client Tier Values</t>
-  </si>
-  <si>
-    <t>M | M</t>
-  </si>
-  <si>
-    <t>7 | 7</t>
-  </si>
-  <si>
-    <t>B | B</t>
-  </si>
-  <si>
-    <t>S | S</t>
-  </si>
-  <si>
-    <t>N | N</t>
-  </si>
-  <si>
-    <t>V | V</t>
-  </si>
-  <si>
-    <t>6 | 6</t>
-  </si>
-  <si>
-    <t>A | A</t>
-  </si>
-  <si>
-    <t>SBO</t>
-  </si>
-  <si>
-    <t>Embargo Code</t>
+    <t>SORTL</t>
+  </si>
+  <si>
+    <t>Company number</t>
+  </si>
+  <si>
+    <t>Order block code</t>
   </si>
   <si>
     <t>Currency Code</t>
@@ -1205,6 +1262,51 @@
     <t>Customer Classification Code</t>
   </si>
   <si>
+    <t>Customer Classification Code Values</t>
+  </si>
+  <si>
+    <t>11 | 11-COMMERCIAL CUSTOMER</t>
+  </si>
+  <si>
+    <t>12 | 12-FEDERAL GOVERNMENT</t>
+  </si>
+  <si>
+    <t>13 | 13-STATE GOVERNMENT</t>
+  </si>
+  <si>
+    <t>14 | 14-LOCAL GOVERNMENT</t>
+  </si>
+  <si>
+    <t>33 | 33-IGF Fin. Subsidiary</t>
+  </si>
+  <si>
+    <t>34 | 34-3rd party Financing</t>
+  </si>
+  <si>
+    <t>45 | 45-Reseller</t>
+  </si>
+  <si>
+    <t>46 | 46-Distributor</t>
+  </si>
+  <si>
+    <t>47 | 47-OEM</t>
+  </si>
+  <si>
+    <t>49 | 49-Business Partner</t>
+  </si>
+  <si>
+    <t>60 | 60-Private Person</t>
+  </si>
+  <si>
+    <t>71 | 71-IBM-EMPLOYEE</t>
+  </si>
+  <si>
+    <t>81 | 81-IBM-Internal</t>
+  </si>
+  <si>
+    <t>85 | 85-Strategic Outsourcing</t>
+  </si>
+  <si>
     <t>VAT</t>
   </si>
   <si>
@@ -1226,6 +1328,42 @@
     <t>Att. Person</t>
   </si>
   <si>
+    <t>Preferred Language</t>
+  </si>
+  <si>
+    <t>State/Province</t>
+  </si>
+  <si>
+    <t>State/Province Values</t>
+  </si>
+  <si>
+    <t>1 | 1 - Burgenland</t>
+  </si>
+  <si>
+    <t>2 | 2 - Kärnten</t>
+  </si>
+  <si>
+    <t>3 | 3 - Niederösterreich</t>
+  </si>
+  <si>
+    <t>4 | 4 - Oberösterreich</t>
+  </si>
+  <si>
+    <t>5 | 5 - Salzburg</t>
+  </si>
+  <si>
+    <t>6 | 6 - Steiermark</t>
+  </si>
+  <si>
+    <t>7 | 7 - Tirol</t>
+  </si>
+  <si>
+    <t>8 | 8 - Vorarlberg</t>
+  </si>
+  <si>
+    <t>9 | 9 - Wien</t>
+  </si>
+  <si>
     <t>Street</t>
   </si>
   <si>
@@ -1239,9 +1377,6 @@
   </si>
   <si>
     <t>Phone</t>
-  </si>
-  <si>
-    <t>Preferred Language</t>
   </si>
   <si>
     <t>Hardware Master</t>
@@ -1341,22 +1476,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1365,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H375"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false"/>
   </sheetViews>
@@ -1373,6 +1508,12 @@
   <cols>
     <col min="1" max="1" width="30.0" customWidth="true"/>
     <col min="2" max="2" width="30.0" customWidth="true"/>
+    <col min="3" max="3" width="30.0" customWidth="true"/>
+    <col min="4" max="4" width="30.0" customWidth="true"/>
+    <col min="5" max="5" width="30.0" customWidth="true"/>
+    <col min="6" max="6" width="30.0" customWidth="true"/>
+    <col min="7" max="7" width="30.0" customWidth="true"/>
+    <col min="8" max="8" width="30.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1380,7 +1521,25 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>381</v>
+      </c>
+      <c r="C1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="2">
@@ -1388,7 +1547,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="3">
@@ -1396,7 +1573,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="4">
@@ -1404,7 +1599,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>384</v>
+      </c>
+      <c r="C4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H4" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="5">
@@ -1412,7 +1625,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="6">
@@ -1420,7 +1651,25 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" t="s">
+        <v>443</v>
+      </c>
+      <c r="H6" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="7">
@@ -1428,7 +1677,25 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>387</v>
+      </c>
+      <c r="C7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="8">
@@ -1436,7 +1703,25 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="C8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" t="s">
+        <v>445</v>
+      </c>
+      <c r="H8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="9">
@@ -1444,97 +1729,202 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H10" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>16</v>
       </c>
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>17</v>
       </c>
+      <c r="B14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
+      <c r="B15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>19</v>
       </c>
+      <c r="B16" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>20</v>
       </c>
+      <c r="B17" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>21</v>
       </c>
+      <c r="B18" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>22</v>
       </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>23</v>
       </c>
+      <c r="B20" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>24</v>
       </c>
+      <c r="B21" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>25</v>
       </c>
+      <c r="B22" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>26</v>
       </c>
+      <c r="B23" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>27</v>
       </c>
+      <c r="B24" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
+      <c r="B25" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>29</v>
       </c>
+      <c r="B26" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3674,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2002"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -3301,10 +3691,11 @@
     <col min="6" max="6" width="25.0" customWidth="true"/>
     <col min="7" max="7" width="25.0" customWidth="true"/>
     <col min="8" max="8" width="15.0" customWidth="true"/>
-    <col min="9" max="9" width="10.0" customWidth="true"/>
+    <col min="9" max="9" width="15.0" customWidth="true"/>
     <col min="10" max="10" width="10.0" customWidth="true"/>
     <col min="11" max="11" width="10.0" customWidth="true"/>
-    <col min="12" max="12" width="5.0" customWidth="true"/>
+    <col min="12" max="12" width="10.0" customWidth="true"/>
+    <col min="13" max="13" width="5.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3327,34 +3718,37 @@
         <v>380</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2002:L2002"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2002:M2002"/>
   </mergeCells>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation type="textLength" operator="equal" sqref="A2:A2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Value should be exactly 6 characters long." showInputMessage="true" promptTitle="Note:" prompt="Value should be exactly 6 characters long.">
       <formula1>6</formula1>
     </dataValidation>
@@ -3370,16 +3764,28 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" sqref="E2:E2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 4 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 4 characters.">
       <formula1>4</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
-      <formula1>Control!$B$2:$B$9</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
-      <formula1>10</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 3 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 3 characters.">
+    <dataValidation type="list" sqref="F2:F2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
+      <formula1>Control!$B$2:$B$27</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 1 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 1 characters.">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 8 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 8 characters.">
+      <formula1>8</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
+      <formula1>6</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 2 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 2 characters.">
+      <formula1>2</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 3 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 3 characters.">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="L2:L2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 20 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 20 characters.">
+    <dataValidation type="list" sqref="L2:L2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
+      <formula1>Control!$C$2:$C$15</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="M2:M2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 20 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 20 characters.">
       <formula1>20</formula1>
     </dataValidation>
   </dataValidations>
@@ -3389,7 +3795,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2002"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -3404,13 +3810,14 @@
     <col min="4" max="4" width="40.0" customWidth="true"/>
     <col min="5" max="5" width="40.0" customWidth="true"/>
     <col min="6" max="6" width="40.0" customWidth="true"/>
-    <col min="7" max="7" width="40.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
     <col min="8" max="8" width="40.0" customWidth="true"/>
-    <col min="9" max="9" width="20.0" customWidth="true"/>
-    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="40.0" customWidth="true"/>
+    <col min="10" max="10" width="40.0" customWidth="true"/>
     <col min="11" max="11" width="20.0" customWidth="true"/>
     <col min="12" max="12" width="20.0" customWidth="true"/>
-    <col min="13" max="13" width="10.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+    <col min="14" max="14" width="10.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3418,52 +3825,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="s" s="3">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2002:M2002"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2002:N2002"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="textLength" operator="equal" sqref="A2:A2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Value should be exactly 6 characters long." showInputMessage="true" promptTitle="Note:" prompt="Value should be exactly 6 characters long.">
       <formula1>6</formula1>
     </dataValidation>
@@ -3482,19 +3892,22 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" sqref="F2:F2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
+    <dataValidation type="list" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
+      <formula1>Control!$D$2:$D$10</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
       <formula1>24</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="L2:L2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
       <formula1>6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="M2:M2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
       <formula1>11</formula1>
     </dataValidation>
   </dataValidations>
@@ -3504,7 +3917,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2002"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -3519,12 +3932,13 @@
     <col min="4" max="4" width="40.0" customWidth="true"/>
     <col min="5" max="5" width="40.0" customWidth="true"/>
     <col min="6" max="6" width="40.0" customWidth="true"/>
-    <col min="7" max="7" width="40.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
     <col min="8" max="8" width="40.0" customWidth="true"/>
-    <col min="9" max="9" width="20.0" customWidth="true"/>
-    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="40.0" customWidth="true"/>
+    <col min="10" max="10" width="40.0" customWidth="true"/>
     <col min="11" max="11" width="20.0" customWidth="true"/>
     <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3532,49 +3946,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="s" s="4">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2002:L2002"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2002:M2002"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="textLength" operator="equal" sqref="A2:A2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Value should be exactly 6 characters long." showInputMessage="true" promptTitle="Note:" prompt="Value should be exactly 6 characters long.">
       <formula1>6</formula1>
     </dataValidation>
@@ -3593,19 +4010,22 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" sqref="F2:F2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
+    <dataValidation type="list" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
+      <formula1>Control!$E$2:$E$10</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
       <formula1>24</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="L2:L2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
       <formula1>6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="M2:M2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
       <formula1>11</formula1>
     </dataValidation>
   </dataValidations>
@@ -3615,7 +4035,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2002"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -3630,13 +4050,14 @@
     <col min="4" max="4" width="40.0" customWidth="true"/>
     <col min="5" max="5" width="40.0" customWidth="true"/>
     <col min="6" max="6" width="40.0" customWidth="true"/>
-    <col min="7" max="7" width="40.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
     <col min="8" max="8" width="40.0" customWidth="true"/>
-    <col min="9" max="9" width="18.0" customWidth="true"/>
-    <col min="10" max="10" width="20.0" customWidth="true"/>
-    <col min="11" max="11" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="40.0" customWidth="true"/>
+    <col min="10" max="10" width="40.0" customWidth="true"/>
+    <col min="11" max="11" width="18.0" customWidth="true"/>
     <col min="12" max="12" width="20.0" customWidth="true"/>
-    <col min="13" max="13" width="10.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+    <col min="14" max="14" width="10.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3644,52 +4065,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="s" s="5">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2002:M2002"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2002:N2002"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="textLength" operator="equal" sqref="A2:A2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Value should be exactly 6 characters long." showInputMessage="true" promptTitle="Note:" prompt="Value should be exactly 6 characters long.">
       <formula1>6</formula1>
     </dataValidation>
@@ -3708,19 +4132,22 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" sqref="F2:F2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
+    <dataValidation type="list" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
+      <formula1>Control!$F$2:$F$10</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
       <formula1>24</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="L2:L2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
       <formula1>6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="M2:M2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
       <formula1>11</formula1>
     </dataValidation>
   </dataValidations>
@@ -3730,7 +4157,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2002"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -3745,12 +4172,13 @@
     <col min="4" max="4" width="40.0" customWidth="true"/>
     <col min="5" max="5" width="40.0" customWidth="true"/>
     <col min="6" max="6" width="40.0" customWidth="true"/>
-    <col min="7" max="7" width="40.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
     <col min="8" max="8" width="40.0" customWidth="true"/>
-    <col min="9" max="9" width="20.0" customWidth="true"/>
-    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="40.0" customWidth="true"/>
+    <col min="10" max="10" width="40.0" customWidth="true"/>
     <col min="11" max="11" width="20.0" customWidth="true"/>
     <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3758,49 +4186,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="s" s="6">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2002:L2002"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2002:M2002"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="textLength" operator="equal" sqref="A2:A2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Value should be exactly 6 characters long." showInputMessage="true" promptTitle="Note:" prompt="Value should be exactly 6 characters long.">
       <formula1>6</formula1>
     </dataValidation>
@@ -3819,19 +4250,22 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" sqref="F2:F2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
+    <dataValidation type="list" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
+      <formula1>Control!$G$2:$G$10</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
       <formula1>24</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="L2:L2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
       <formula1>6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="M2:M2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
       <formula1>11</formula1>
     </dataValidation>
   </dataValidations>
@@ -3841,7 +4275,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2002"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="false">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -3856,12 +4290,13 @@
     <col min="4" max="4" width="40.0" customWidth="true"/>
     <col min="5" max="5" width="40.0" customWidth="true"/>
     <col min="6" max="6" width="40.0" customWidth="true"/>
-    <col min="7" max="7" width="40.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
     <col min="8" max="8" width="40.0" customWidth="true"/>
-    <col min="9" max="9" width="20.0" customWidth="true"/>
-    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="40.0" customWidth="true"/>
+    <col min="10" max="10" width="40.0" customWidth="true"/>
     <col min="11" max="11" width="20.0" customWidth="true"/>
     <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3869,49 +4304,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="s" s="7">
-        <v>396</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2002:L2002"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2002:M2002"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="textLength" operator="equal" sqref="A2:A2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Value should be exactly 6 characters long." showInputMessage="true" promptTitle="Note:" prompt="Value should be exactly 6 characters long.">
       <formula1>6</formula1>
     </dataValidation>
@@ -3930,19 +4368,22 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" sqref="F2:F2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="G2:G2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 30 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 30 characters.">
       <formula1>30</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="H2:H2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 24 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 24 characters.">
       <formula1>24</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="I2:I2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
+    <dataValidation type="list" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Please select values from the list." showInputMessage="true" promptTitle="Note:" prompt="Please select values from the list.">
+      <formula1>Control!$H$2:$H$10</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 10 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 10 characters.">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="J2:J2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="L2:L2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 6 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 6 characters.">
       <formula1>6</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="K2:K2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
+    <dataValidation type="textLength" operator="lessThanOrEqual" sqref="M2:M2001" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Invalid Value" error="Maximum length of the value is 11 characters." showInputMessage="true" promptTitle="Note:" prompt="Maximum length of the value is 11 characters.">
       <formula1>11</formula1>
     </dataValidation>
   </dataValidations>
